--- a/PROYEK1-LogBookKelompok2.xlsx
+++ b/PROYEK1-LogBookKelompok2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regawa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Documents\Git\Repo-Kel2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Log Book Kelompok 2</t>
   </si>
@@ -44,25 +44,67 @@
     <t>Nama Kegiatan</t>
   </si>
   <si>
-    <t>Web Scraping</t>
-  </si>
-  <si>
     <t>27 Februari 2018</t>
   </si>
   <si>
     <t>13 Maret 2018</t>
   </si>
   <si>
-    <t>9 Maret 2018</t>
-  </si>
-  <si>
-    <t>Survey Food Court BIP</t>
+    <t>Mempelajari Git</t>
+  </si>
+  <si>
+    <t>Belajar MySql</t>
+  </si>
+  <si>
+    <t>Membuat PPT</t>
+  </si>
+  <si>
+    <t>Belajar Web Scraping</t>
+  </si>
+  <si>
+    <t>Belajar git bash commands</t>
+  </si>
+  <si>
+    <t>Web Scraping data</t>
+  </si>
+  <si>
+    <t>20 Februari 2018</t>
+  </si>
+  <si>
+    <t>23 Februari 2018</t>
+  </si>
+  <si>
+    <t>06 Maret 2018</t>
+  </si>
+  <si>
+    <t>Rencana Kegiatan</t>
+  </si>
+  <si>
+    <t>Implementasi write and read data dari Excel ke java</t>
+  </si>
+  <si>
+    <t>Membuat/mencari data transaksi foodcourt</t>
+  </si>
+  <si>
+    <t>Membuat/mencari data meja foodcourt</t>
+  </si>
+  <si>
+    <t>Implementasi visualisasi data di java</t>
+  </si>
+  <si>
+    <t>29 Maret 2018</t>
+  </si>
+  <si>
+    <t>30 Maret 2018</t>
+  </si>
+  <si>
+    <t>2 April' 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -95,14 +137,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -111,6 +147,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,255 +439,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="47.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="D3" s="5"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="15">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PROYEK1-LogBookKelompok2.xlsx
+++ b/PROYEK1-LogBookKelompok2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Documents\Git\Repo-Kel2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITREP\Repo-Kel2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Log Book Kelompok 2</t>
   </si>
@@ -99,12 +99,48 @@
   </si>
   <si>
     <t>2 April' 2018</t>
+  </si>
+  <si>
+    <t>UI Design</t>
+  </si>
+  <si>
+    <t>Data input &amp; output</t>
+  </si>
+  <si>
+    <t>8 Mei</t>
+  </si>
+  <si>
+    <t>Data visualization &amp; report (Quiz/eval)</t>
+  </si>
+  <si>
+    <t>Data visualization &amp; report</t>
+  </si>
+  <si>
+    <t>15 Mei</t>
+  </si>
+  <si>
+    <t>22 Mei</t>
+  </si>
+  <si>
+    <t>Dokumentasi /Video Produk</t>
+  </si>
+  <si>
+    <t>29 Mei</t>
+  </si>
+  <si>
+    <t>Presentasi Akhir</t>
+  </si>
+  <si>
+    <t>5 Juni</t>
+  </si>
+  <si>
+    <t>UAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -137,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -159,6 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +479,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +650,15 @@
         <v>13</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>43207</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -625,7 +670,15 @@
         <v>12</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" s="9">
+        <v>43214</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -641,31 +694,71 @@
         <v>13</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
@@ -773,21 +866,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
